--- a/Paper Documents/LTSpice Wt Sweeping.xlsx
+++ b/Paper Documents/LTSpice Wt Sweeping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbac95a4807948e4/Documents/ECE Masters/562/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbac95a4807948e4/Documents/ECE Masters/562/Project/Paper Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{825B93D6-95F9-4097-9AED-EBE7B8275726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{825B93D6-95F9-4097-9AED-EBE7B8275726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237CD2A4-CC16-43A5-AD61-248DA4BA1AC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E013A73-16B4-4B42-B5DC-59960DA03BDB}"/>
+    <workbookView minimized="1" xWindow="19210" yWindow="10" windowWidth="19190" windowHeight="10070" xr2:uid="{6E013A73-16B4-4B42-B5DC-59960DA03BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB27FD6-1111-4830-BC17-92551C41A2D4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +434,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>7.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.12</v>
+      </c>
+      <c r="B3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.24</v>
+      </c>
+      <c r="B4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
